--- a/Resources/1996/Advanced_Percentile_1996.xlsx
+++ b/Resources/1996/Advanced_Percentile_1996.xlsx
@@ -1342,10 +1342,10 @@
     <t>hurlebo01</t>
   </si>
   <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
@@ -1354,34 +1354,34 @@
     <t>Anfernee Hardaway</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Reggie Miller*</t>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Terrell Brandon</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Cedric Ceballos</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Mitch Richmond*</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Mitch Richmond</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Kevin Johnson</t>
@@ -1390,7 +1390,7 @@
     <t>Toni Kukoc</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Chris Webber</t>
@@ -1399,7 +1399,7 @@
     <t>Jeff Hornacek</t>
   </si>
   <si>
-    <t>Magic Johnson*</t>
+    <t>Magic Johnson</t>
   </si>
   <si>
     <t>Cedric Lewis</t>
@@ -1408,13 +1408,13 @@
     <t>Darrell Armstrong</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Larry Johnson</t>
@@ -1423,7 +1423,7 @@
     <t>Gheorghe Muresan</t>
   </si>
   <si>
-    <t>Clyde Drexler*</t>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Detlef Schrempf</t>
@@ -1462,7 +1462,7 @@
     <t>Allan Houston</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Terry Dehere</t>
@@ -1522,7 +1522,7 @@
     <t>Nick Anderson</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Sam Cassell</t>
@@ -1537,7 +1537,7 @@
     <t>Otis Thorpe</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Voshon Lenard</t>
@@ -1618,10 +1618,10 @@
     <t>Brian Grant</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
-  </si>
-  <si>
-    <t>Dino Radja*</t>
+    <t>Dikembe Mutombo</t>
+  </si>
+  <si>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Jim Jackson</t>
@@ -1681,7 +1681,7 @@
     <t>Mario Elie</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Isaiah Rider</t>
@@ -1702,7 +1702,7 @@
     <t>Dan Majerle</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Terry Mills</t>
@@ -1900,7 +1900,7 @@
     <t>Eddie Johnson</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Donnie Boyce</t>
@@ -2182,7 +2182,7 @@
     <t>Stanley Roberts</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>LaPhonso Ellis</t>
